--- a/Resources/excel/Test_Data_Sheet.xlsx
+++ b/Resources/excel/Test_Data_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java-Playwright-New\Resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java-Playwright\Resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC2075A-2DB9-494B-8C5B-A1CA4A3B8D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="5355"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -21,25 +22,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Chitre, Sagar (AllianzGI - External)</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
   <si>
     <t>TestId</t>
   </si>
@@ -391,11 +384,20 @@
   <si>
     <t>AUTOMATION1625051750351</t>
   </si>
+  <si>
+    <t>AUTOMATION1625826723452</t>
+  </si>
+  <si>
+    <t>testExecution</t>
+  </si>
+  <si>
+    <t>Donotdeleteusedforcreationoftestexecution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
@@ -445,7 +447,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -520,6 +528,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -834,11 +844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17440,7 +17450,9 @@
       <c r="K5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -18850,13 +18862,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="I2" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="E6" r:id="rId7"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -18867,7 +18879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19123,16 +19135,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1" collapsed="1"/>
@@ -19157,68 +19169,64 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
+      <c r="A2" s="15" t="s">
+        <v>113</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>101</v>
+      <c r="E2" s="15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
+      <c r="A3" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="13"/>
       <c r="D4" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
+      <c r="A5" s="2" t="s">
+        <v>31</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="13"/>
       <c r="D5" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
+      <c r="A6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>104</v>
@@ -19228,6 +19236,21 @@
         <v>102</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>106</v>
       </c>
     </row>

--- a/Resources/excel/Test_Data_Sheet.xlsx
+++ b/Resources/excel/Test_Data_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java-Playwright\Resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC2075A-2DB9-494B-8C5B-A1CA4A3B8D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A852E8E-0EEC-4CBA-9EDD-4AFBC19C27A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,24 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FD85A7B1-1A2E-467C-A30C-05C42B4E8794}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FD85A7B1-1A2E-467C-A30C-05C42B4E8794}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Please don not change the sequence of these 5 columns. All the test data should be entered from column F</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Chitre, Sagar (AllianzGI - External)</author>
@@ -50,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="117">
   <si>
     <t>TestId</t>
   </si>
@@ -393,6 +411,15 @@
   <si>
     <t>Donotdeleteusedforcreationoftestexecution</t>
   </si>
+  <si>
+    <t>TestStatus</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AUTOMATION1626184270370</t>
+  </si>
 </sst>
 </file>
 
@@ -447,7 +474,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,8 +493,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -490,12 +523,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -530,6 +576,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -546,6 +596,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Chitre, Sagar (AllianzGI - External)" id="{CCEC59AB-01FA-4C66-B70E-9F3BC9BC79E7}" userId="S::Ext.Sagar.Chitre@allianzgi.com::9edb3c82-fcb2-4c4e-a957-2bf9ff37ec83" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -843,12 +899,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-07-13T12:58:08.32" personId="{CCEC59AB-01FA-4C66-B70E-9F3BC9BC79E7}" id="{FD85A7B1-1A2E-467C-A30C-05C42B4E8794}">
+    <text>Please don not change the sequence of these 5 columns. All the test data should be entered from column F</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFD58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -857,70 +921,72 @@
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16383" width="9.140625" style="1" collapsed="1"/>
-    <col min="16384" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16383" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16384" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
@@ -17287,8 +17353,9 @@
       <c r="XFA1" s="11"/>
       <c r="XFB1" s="11"/>
       <c r="XFC1" s="11"/>
+      <c r="XFD1" s="11"/>
     </row>
-    <row r="2" spans="1:16383" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -17301,25 +17368,27 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -17333,8 +17402,9 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:16383" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16384" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -17347,18 +17417,20 @@
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -17373,8 +17445,9 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:16383" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16384" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -17387,31 +17460,33 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -17421,8 +17496,9 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:16383" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16384" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -17435,25 +17511,27 @@
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>110</v>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>116</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -17465,8 +17543,9 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:16383" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16384" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -17479,27 +17558,31 @@
       <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -17507,13 +17590,14 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:16383" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16384" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -17533,8 +17617,9 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:16383" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -17559,8 +17644,9 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:16383" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -17585,8 +17671,9 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:16383" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -17611,8 +17698,9 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:16383" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -17637,8 +17725,9 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:16383" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -17663,8 +17752,9 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:16383" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -17689,8 +17779,9 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:16383" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -17715,8 +17806,9 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:16383" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -17741,8 +17833,9 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:16383" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -17767,8 +17860,9 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -17793,8 +17887,9 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -17819,8 +17914,9 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -17845,8 +17941,9 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -17871,8 +17968,9 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -17897,8 +17995,9 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -17923,8 +18022,9 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -17949,8 +18049,9 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -17975,8 +18076,9 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -18001,8 +18103,9 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -18027,8 +18130,9 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -18053,8 +18157,9 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -18079,8 +18184,9 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -18105,8 +18211,9 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -18131,8 +18238,9 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -18157,8 +18265,9 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -18183,8 +18292,9 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -18209,8 +18319,9 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -18235,8 +18346,9 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -18261,8 +18373,9 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -18287,8 +18400,9 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -18313,8 +18427,9 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -18339,8 +18454,9 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -18365,8 +18481,9 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -18391,8 +18508,9 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -18417,8 +18535,9 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -18443,8 +18562,9 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -18469,8 +18589,9 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -18495,8 +18616,9 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -18521,8 +18643,9 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -18547,8 +18670,9 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -18573,8 +18697,9 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -18599,8 +18724,9 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -18625,8 +18751,9 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -18651,8 +18778,9 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -18677,8 +18805,9 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -18703,8 +18832,9 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -18729,8 +18859,9 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -18755,8 +18886,9 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -18781,8 +18913,9 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -18807,8 +18940,9 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -18833,8 +18967,9 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -18859,22 +18994,24 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000Internal</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -18883,7 +19020,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19136,22 +19273,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -19164,27 +19303,29 @@
       <c r="D1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="17" t="s">
         <v>99</v>
       </c>
+      <c r="F1" s="20" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>104</v>
-      </c>
+      <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>112</v>
       </c>
+      <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -19194,38 +19335,51 @@
       <c r="D3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="19" t="s">
         <v>101</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="C4" s="13"/>
       <c r="D4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="19" t="s">
         <v>105</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="C5" s="13"/>
       <c r="D5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="19" t="s">
         <v>107</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -19235,11 +19389,14 @@
       <c r="D6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="19" t="s">
         <v>103</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -19250,8 +19407,11 @@
       <c r="D7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="19" t="s">
         <v>106</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
